--- a/Lexnod/src/test/resources/dataRepo/inputData.xlsx
+++ b/Lexnod/src/test/resources/dataRepo/inputData.xlsx
@@ -3,20 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6761067-7E5E-4FD8-A549-C4BFDBFE05E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47055CA-2BCF-4B64-AE10-060B6E3C6ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2256" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5856" yWindow="2040" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createLead" sheetId="1" r:id="rId1"/>
     <sheet name="createCampaign" sheetId="2" r:id="rId2"/>
+    <sheet name="createPotential" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>firstName</t>
   </si>
@@ -88,6 +89,69 @@
   </si>
   <si>
     <t>Free</t>
+  </si>
+  <si>
+    <t>potentialName</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>closingDate</t>
+  </si>
+  <si>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>NextStep</t>
+  </si>
+  <si>
+    <t>LeadSource</t>
+  </si>
+  <si>
+    <t>CampaignSource</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>KiranRaj</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>10/06/2022</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>New Business</t>
+  </si>
+  <si>
+    <t>MayHaveChance</t>
+  </si>
+  <si>
+    <t>Make a call</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>rashmi</t>
+  </si>
+  <si>
+    <t>New Business approved</t>
   </si>
 </sst>
 </file>
@@ -130,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -141,6 +205,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D76CC5C-27F8-4AB3-8823-2CF3CDB44E5A}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -626,4 +692,112 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A87D83-DC01-4CDF-BAD3-D40EF2C5E0C7}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Lexnod/src/test/resources/dataRepo/inputData.xlsx
+++ b/Lexnod/src/test/resources/dataRepo/inputData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47055CA-2BCF-4B64-AE10-060B6E3C6ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4668D090-E209-4BA1-82A2-7B7234E54ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5856" yWindow="2040" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="144" yWindow="1320" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createLead" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>firstName</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Probability</t>
-  </si>
-  <si>
     <t>NextStep</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
   </si>
   <si>
     <t>New Business</t>
-  </si>
-  <si>
-    <t>MayHaveChance</t>
   </si>
   <si>
     <t>Make a call</t>
@@ -696,10 +690,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A87D83-DC01-4CDF-BAD3-D40EF2C5E0C7}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -721,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -729,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -737,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -745,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -753,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -761,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -769,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -777,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -785,15 +779,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Lexnod/src/test/resources/dataRepo/inputData.xlsx
+++ b/Lexnod/src/test/resources/dataRepo/inputData.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4668D090-E209-4BA1-82A2-7B7234E54ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEE996F-8F67-4495-99DB-0D344825EAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="144" yWindow="1320" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="144" yWindow="1320" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createLead" sheetId="1" r:id="rId1"/>
     <sheet name="createCampaign" sheetId="2" r:id="rId2"/>
     <sheet name="createPotential" sheetId="3" r:id="rId3"/>
+    <sheet name="createVendors" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>firstName</t>
   </si>
@@ -146,13 +147,31 @@
   </si>
   <si>
     <t>New Business approved</t>
+  </si>
+  <si>
+    <t>VendorName</t>
+  </si>
+  <si>
+    <t>ArunK</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>8870834994</t>
+  </si>
+  <si>
+    <t>ap112@gamial.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +182,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,10 +212,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -201,8 +229,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -692,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A87D83-DC01-4CDF-BAD3-D40EF2C5E0C7}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -786,4 +816,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEAE755-5C9E-4EB3-BC3C-0288AF727C66}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{4F145EE7-48C2-406E-B4BE-368BB8CE3FCD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Lexnod/src/test/resources/dataRepo/inputData.xlsx
+++ b/Lexnod/src/test/resources/dataRepo/inputData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEE996F-8F67-4495-99DB-0D344825EAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37559CEF-1481-4CCB-8970-D80248D5F923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="144" yWindow="1320" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="144" yWindow="1320" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createLead" sheetId="1" r:id="rId1"/>
@@ -823,7 +823,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
